--- a/medicine/Psychotrope/Rochefort_(bière)/Rochefort_(bière).xlsx
+++ b/medicine/Psychotrope/Rochefort_(bière)/Rochefort_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rochefort_(bi%C3%A8re)</t>
+          <t>Rochefort_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Rochefort est une bière trappiste belge.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rochefort_(bi%C3%A8re)</t>
+          <t>Rochefort_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation de la brasserie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À deux kilomètres au nord de la petite ville de Rochefort, dans la province de Namur (Belgique) se trouve l'abbaye Notre-Dame de Saint-Rémy qui compte une vingtaine de moines trappistes. Cinq d'entre eux travaillent à la brasserie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rochefort_(bi%C3%A8re)</t>
+          <t>Rochefort_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On brasse à l'abbaye depuis 1595 mais à l'époque, la priorité était donnée à l'activité agricole. À la Révolution française, les moines fuient l'abbaye qui est pillée et toute activité brassicole est arrêtée. La congrégation se reforme à la fin du XIXe siècle et c'est en 1950 que les moines brassent à nouveau à Rochefort. C'est la production commencée à cette date qui est le point de départ de la marque qui existe jusqu'aujourd'hui[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On brasse à l'abbaye depuis 1595 mais à l'époque, la priorité était donnée à l'activité agricole. À la Révolution française, les moines fuient l'abbaye qui est pillée et toute activité brassicole est arrêtée. La congrégation se reforme à la fin du XIXe siècle et c'est en 1950 que les moines brassent à nouveau à Rochefort. C'est la production commencée à cette date qui est le point de départ de la marque qui existe jusqu'aujourd'hui.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rochefort_(bi%C3%A8re)</t>
+          <t>Rochefort_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,18 +590,55 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Rochefort, la quantité de bière fabriquée est volontairement limitée. Cela représente néanmoins une production de 1100 hectolitres de bières par semaine.
 La levure utilisée est unique et propre à la brasserie qui possède sa propre souche. L'eau naturellement pure est puisée dans la source de la Tridaine, proche de l'abbaye.
-Un projet d'extension de la carrière de calcaire voisine de la Boverie, exploitée par une société du groupe Lhoist, fait débat à propos du maintien de la qualité de cette eau de source[2],[3],[4]. Cette extension est actuellement bloquée[5],[6].
-Bières
-Il existe quatre types de bières Trappistes de Rochefort. Trois (la 6, la 8 et la 10) sont des bières brunes de fermentation haute. La quatrième est une bière triple blonde.
+Un projet d'extension de la carrière de calcaire voisine de la Boverie, exploitée par une société du groupe Lhoist, fait débat à propos du maintien de la qualité de cette eau de source. Cette extension est actuellement bloquée,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rochefort_(bière)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rochefort_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quatre types de bières Trappistes de Rochefort. Trois (la 6, la 8 et la 10) sont des bières brunes de fermentation haute. La quatrième est une bière triple blonde.
 Ces bières sont commercialisées en bouteilles de 33 cl.
 la Trappiste Rochefort 6, la plus ancienne, à capsule rouge titre 7,5 % d'alcool.
 la Trappiste Rochefort 8 dite Spéciale à capsule verte titre 9,2 % d'alcool.
-la Trappiste Rochefort 10  dite Merveille à capsule bleue titre 11,3 % d'alcool. C'est la bière trappiste comprenant le plus grand pourcentage d'alcool. Elle a été créée après la Seconde Guerre mondiale[1].
-la Trappiste  Rochefort Triple Extra titre 8.1% d'alcool. Première bière blonde de la brasserie et première nouvelle bière Rochefort depuis plus de 65 ans, elle a été créée en 2019 (mais on retiendra néanmoins qu'une blonde avait déjà été brassée entre 1920 et 1923) et sera commercialisée à partir de l'automne 2020, en quantité limitée dans un premier temps. Contrairement aux trois autres bières de Rochefort, la Triple n'a pas un chiffre sur sa capsule mais une devise Curvata resurgo (courbé, je me redresse) qui est la devise de l'Abbaye Saint-Rémy. La couleur de son étiquette est le violet, couleur très présente dans la religion catholique et qui est également la couleur de l'amitié [7],[8]
+la Trappiste Rochefort 10  dite Merveille à capsule bleue titre 11,3 % d'alcool. C'est la bière trappiste comprenant le plus grand pourcentage d'alcool. Elle a été créée après la Seconde Guerre mondiale.
+la Trappiste  Rochefort Triple Extra titre 8.1% d'alcool. Première bière blonde de la brasserie et première nouvelle bière Rochefort depuis plus de 65 ans, elle a été créée en 2019 (mais on retiendra néanmoins qu'une blonde avait déjà été brassée entre 1920 et 1923) et sera commercialisée à partir de l'automne 2020, en quantité limitée dans un premier temps. Contrairement aux trois autres bières de Rochefort, la Triple n'a pas un chiffre sur sa capsule mais une devise Curvata resurgo (courbé, je me redresse) qui est la devise de l'Abbaye Saint-Rémy. La couleur de son étiquette est le violet, couleur très présente dans la religion catholique et qui est également la couleur de l'amitié ,
 Les chiffres 6, 8 et 10 proviennent d'une ancienne unité de mesure du taux d'alcool qui exprime le centième de la gravité du moût avant fermentation.
 			Brasserie des Pères Trappistes de Rochefort
 			Brasserie des Pères Trappistes de Rochefort
